--- a/Jogos_do_Dia/2024-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>6.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.23</v>
@@ -718,10 +718,10 @@
         <v>6.09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="U2" t="n">
         <v>1.77</v>
@@ -830,13 +830,13 @@
         <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="L3" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -1247,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1274,10 +1274,10 @@
         <v>2.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1386,13 +1386,13 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="L7" t="n">
         <v>3.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.9</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>4.14</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1525,13 +1525,13 @@
         <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1555,7 +1555,7 @@
         <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1667,10 +1667,10 @@
         <v>1.36</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="S9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.85</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.95</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -1806,10 +1806,10 @@
         <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="L11" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
@@ -1969,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>

--- a/Jogos_do_Dia/2024-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>6.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>6.96</v>
       </c>
       <c r="M2" t="n">
         <v>1.23</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" t="n">
         <v>2.24</v>
@@ -830,13 +830,13 @@
         <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -878,10 +878,10 @@
         <v>1.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AB3" t="n">
         <v>1.37</v>
@@ -1017,10 +1017,10 @@
         <v>1.42</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AB4" t="n">
         <v>1.17</v>
@@ -1156,10 +1156,10 @@
         <v>1.62</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" t="n">
         <v>1.44</v>
@@ -1247,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="K6" t="n">
-        <v>3.28</v>
+        <v>2.91</v>
       </c>
       <c r="L6" t="n">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1271,13 +1271,13 @@
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1295,10 +1295,10 @@
         <v>1.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AB6" t="n">
         <v>1.28</v>
@@ -1386,13 +1386,13 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="K7" t="n">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>4.14</v>
       </c>
       <c r="S7" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1434,10 +1434,10 @@
         <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>1.71</v>
@@ -1525,13 +1525,13 @@
         <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="K8" t="n">
-        <v>4.84</v>
+        <v>4.44</v>
       </c>
       <c r="L8" t="n">
-        <v>6.99</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.3</v>
@@ -1552,10 +1552,10 @@
         <v>4.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1573,10 +1573,10 @@
         <v>2.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AB8" t="n">
         <v>1.71</v>
@@ -1664,13 +1664,13 @@
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.23</v>
       </c>
       <c r="L9" t="n">
-        <v>8.75</v>
+        <v>8.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -1712,10 +1712,10 @@
         <v>3.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AB9" t="n">
         <v>1.49</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>3.8</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>1.33</v>
@@ -1942,13 +1942,13 @@
         <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="T11" t="n">
         <v>1.6</v>
@@ -1990,10 +1990,10 @@
         <v>1.78</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AB11" t="n">
         <v>1.26</v>
